--- a/Assets/ExcelFile/ItemExcel.xlsx
+++ b/Assets/ExcelFile/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Team\EscapeIsekai\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E05C076-FBF7-4BE7-8816-67219B4F46A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E97B935-57B3-4AF3-8BB2-D8C5BB55E32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>_id</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>_maxCount</t>
+  </si>
+  <si>
+    <t>[ItemData]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -187,9 +191,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,66 +530,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -591,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -602,13 +595,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -617,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -628,13 +621,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -654,13 +647,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -680,19 +673,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -701,24 +694,24 @@
         <v>27</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
@@ -732,19 +725,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -753,10 +746,39 @@
         <v>27</v>
       </c>
       <c r="H9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
